--- a/data-raw/dictionary.xlsx
+++ b/data-raw/dictionary.xlsx
@@ -1,142 +1,152 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lschoebitz/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA088A66-7636-9E49-A44D-BE52D2247F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="1440" yWindow="500" windowWidth="35400" windowHeight="24980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
-  <si>
-    <t xml:space="preserve">directory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">file_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">variable_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">variable_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">okap.rda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neighborho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">double</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">character</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sup_km2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sector_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qlty_water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qty_water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">health_car</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schooling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">economy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ranking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sup_bati</t>
-  </si>
-  <si>
-    <t xml:space="preserve">density</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aptitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zoning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">latrine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">standing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">density_ra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">economy_nu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">geometry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mwater.rda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latitude.o</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Administra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date.added</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Datasets..</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="40">
+  <si>
+    <t>directory</t>
+  </si>
+  <si>
+    <t>file_name</t>
+  </si>
+  <si>
+    <t>variable_name</t>
+  </si>
+  <si>
+    <t>variable_type</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>data/</t>
+  </si>
+  <si>
+    <t>okap.rda</t>
+  </si>
+  <si>
+    <t>neighborho</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>character</t>
+  </si>
+  <si>
+    <t>sup_km2</t>
+  </si>
+  <si>
+    <t>sector_id</t>
+  </si>
+  <si>
+    <t>cte</t>
+  </si>
+  <si>
+    <t>qlty_water</t>
+  </si>
+  <si>
+    <t>qty_water</t>
+  </si>
+  <si>
+    <t>health_car</t>
+  </si>
+  <si>
+    <t>schooling</t>
+  </si>
+  <si>
+    <t>transport</t>
+  </si>
+  <si>
+    <t>economy</t>
+  </si>
+  <si>
+    <t>ranking</t>
+  </si>
+  <si>
+    <t>sup_bati</t>
+  </si>
+  <si>
+    <t>density</t>
+  </si>
+  <si>
+    <t>aptitude</t>
+  </si>
+  <si>
+    <t>zoning</t>
+  </si>
+  <si>
+    <t>latrine</t>
+  </si>
+  <si>
+    <t>standing</t>
+  </si>
+  <si>
+    <t>density_ra</t>
+  </si>
+  <si>
+    <t>economy_nu</t>
+  </si>
+  <si>
+    <t>geometry</t>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>mwater.rda</t>
+  </si>
+  <si>
+    <t>Latitude.o</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>Administra</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Date.added</t>
+  </si>
+  <si>
+    <t>Datasets..</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -172,6 +182,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -453,14 +472,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -477,7 +498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -491,10 +512,10 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -511,7 +532,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -528,7 +549,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -545,7 +566,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -562,7 +583,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -579,7 +600,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -596,7 +617,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -613,7 +634,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -630,7 +651,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -647,7 +668,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -664,7 +685,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -681,7 +702,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -698,7 +719,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -715,7 +736,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -732,7 +753,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -749,7 +770,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -766,7 +787,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -783,7 +804,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -800,7 +821,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -817,7 +838,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -834,7 +855,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -851,7 +872,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -868,7 +889,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -885,7 +906,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -902,7 +923,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -919,7 +940,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -936,7 +957,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -955,6 +976,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/data-raw/dictionary.xlsx
+++ b/data-raw/dictionary.xlsx
@@ -1,152 +1,142 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lschoebitz/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA088A66-7636-9E49-A44D-BE52D2247F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="500" windowWidth="35400" windowHeight="24980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="40">
-  <si>
-    <t>directory</t>
-  </si>
-  <si>
-    <t>file_name</t>
-  </si>
-  <si>
-    <t>variable_name</t>
-  </si>
-  <si>
-    <t>variable_type</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>data/</t>
-  </si>
-  <si>
-    <t>okap.rda</t>
-  </si>
-  <si>
-    <t>neighborho</t>
-  </si>
-  <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>character</t>
-  </si>
-  <si>
-    <t>sup_km2</t>
-  </si>
-  <si>
-    <t>sector_id</t>
-  </si>
-  <si>
-    <t>cte</t>
-  </si>
-  <si>
-    <t>qlty_water</t>
-  </si>
-  <si>
-    <t>qty_water</t>
-  </si>
-  <si>
-    <t>health_car</t>
-  </si>
-  <si>
-    <t>schooling</t>
-  </si>
-  <si>
-    <t>transport</t>
-  </si>
-  <si>
-    <t>economy</t>
-  </si>
-  <si>
-    <t>ranking</t>
-  </si>
-  <si>
-    <t>sup_bati</t>
-  </si>
-  <si>
-    <t>density</t>
-  </si>
-  <si>
-    <t>aptitude</t>
-  </si>
-  <si>
-    <t>zoning</t>
-  </si>
-  <si>
-    <t>latrine</t>
-  </si>
-  <si>
-    <t>standing</t>
-  </si>
-  <si>
-    <t>density_ra</t>
-  </si>
-  <si>
-    <t>economy_nu</t>
-  </si>
-  <si>
-    <t>geometry</t>
-  </si>
-  <si>
-    <t>list</t>
-  </si>
-  <si>
-    <t>mwater.rda</t>
-  </si>
-  <si>
-    <t>Latitude.o</t>
-  </si>
-  <si>
-    <t>Longitude</t>
-  </si>
-  <si>
-    <t>Administra</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Date.added</t>
-  </si>
-  <si>
-    <t>Datasets..</t>
-  </si>
-  <si>
-    <t>test</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+  <si>
+    <t xml:space="preserve">directory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">file_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">variable_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">variable_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">okap.rda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neighborho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">double</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">character</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sup_km2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sector_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qlty_water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qty_water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">health_car</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schooling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">economy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ranking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sup_bati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">density</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aptitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zoning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">latrine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">standing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">density_ra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">economy_nu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">geometry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mwater.rda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latitude.o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date.added</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datasets..</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -182,15 +172,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -472,16 +453,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -498,7 +477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -512,10 +491,10 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -532,7 +511,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -549,7 +528,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -566,7 +545,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -583,7 +562,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -600,7 +579,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -617,7 +596,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -634,7 +613,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -651,7 +630,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -668,7 +647,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -685,7 +664,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -702,7 +681,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -719,7 +698,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -736,7 +715,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -753,7 +732,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -770,7 +749,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -787,7 +766,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -804,7 +783,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -821,7 +800,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -838,7 +817,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -855,7 +834,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -872,7 +851,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -889,7 +868,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -906,7 +885,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -923,7 +902,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -940,7 +919,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -957,7 +936,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -976,6 +955,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/data-raw/dictionary.xlsx
+++ b/data-raw/dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sloos\Documents\git-repositories\cbssuitabilityhaiti\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C0C660-225B-4F2C-9101-C02011FBBB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E813FFD4-36A4-4D98-9EFF-4CCBD92B277C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20295" yWindow="1725" windowWidth="17250" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1170" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="60">
   <si>
     <t>directory</t>
   </si>
@@ -58,9 +58,6 @@
     <t>sup_km2</t>
   </si>
   <si>
-    <t>sector_id</t>
-  </si>
-  <si>
     <t>cte</t>
   </si>
   <si>
@@ -91,6 +88,9 @@
     <t>density</t>
   </si>
   <si>
+    <t>integer</t>
+  </si>
+  <si>
     <t>aptitude</t>
   </si>
   <si>
@@ -118,22 +118,67 @@
     <t>mwater.rda</t>
   </si>
   <si>
-    <t>Latitude.o</t>
-  </si>
-  <si>
-    <t>Longitude</t>
-  </si>
-  <si>
-    <t>Administra</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Date.added</t>
-  </si>
-  <si>
-    <t>Datasets..</t>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>administra</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>date_added</t>
+  </si>
+  <si>
+    <t>datasets</t>
+  </si>
+  <si>
+    <t>Unique identifying number for each neighborhood unit</t>
+  </si>
+  <si>
+    <t>Name of each nieghborhood unit</t>
+  </si>
+  <si>
+    <t>Area of neighborhood in square km</t>
+  </si>
+  <si>
+    <t>Name of commune (administrative unit in Haiti)</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Categorical socioeconomic status (low, medium)</t>
+  </si>
+  <si>
+    <t>area of neihborhood covered by buildings in square meters</t>
+  </si>
+  <si>
+    <t>Categorical population density (least dense, somewhat dense, dense, very dense, most dense)</t>
+  </si>
+  <si>
+    <t>suitability of the site for a wastewater treatment system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"group" if collective or grouped sanitation is possible in short term. </t>
+  </si>
+  <si>
+    <t>Suggested pit latrine and septic allowance (allowed, not allowed)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unknown </t>
+  </si>
+  <si>
+    <t>Catgoriccal population density according to the description of the variable "density" (values from 1 to 5)</t>
+  </si>
+  <si>
+    <t>Categotical socioeconomic status according to the description of the variable "economy" (1=low, 2 = medium)</t>
+  </si>
+  <si>
+    <t>Geospatial data of the neighborhood stored as a polygon</t>
   </si>
   <si>
     <t>Lattitude coordinate</t>
@@ -152,54 +197,6 @@
   </si>
   <si>
     <t>Dataset in mWater that point is part of, including organizaiton that is responsible for data</t>
-  </si>
-  <si>
-    <t>Unique identifying number for each neighborhood unit</t>
-  </si>
-  <si>
-    <t>Name of each nieghborhood unit</t>
-  </si>
-  <si>
-    <t>Area of neighborhood in square km</t>
-  </si>
-  <si>
-    <t>NULL</t>
-  </si>
-  <si>
-    <t>Name of commune (administrative unit in Haiti)</t>
-  </si>
-  <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>Categorical socioeconomic status (low, medium)</t>
-  </si>
-  <si>
-    <t>Categorical population density (least dense, somewhat dense, dense, very dense, most dense)</t>
-  </si>
-  <si>
-    <t>Suggested pit latrine and septic allowance (allowed, not allowed)</t>
-  </si>
-  <si>
-    <t>area of neihborhood covered by buildings in square meters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"group" if collective or grouped sanitation is possible in short term. </t>
-  </si>
-  <si>
-    <t>suitability of the site for a wastewater treatment system</t>
-  </si>
-  <si>
-    <t>Catgoriccal population density according to the description of the variable "density" (values from 1 to 5)</t>
-  </si>
-  <si>
-    <t>Categotical socioeconomic status according to the description of the variable "economy" (1=low, 2 = medium)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unknown </t>
-  </si>
-  <si>
-    <t>Geospatial data of the neighborhood stored as a polygon</t>
   </si>
   <si>
     <t>Geospatial data of the different access points that were added to mWater</t>
@@ -536,13 +533,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="97.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -575,7 +575,7 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -592,7 +592,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -609,7 +609,7 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -623,10 +623,10 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -640,10 +640,10 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -660,7 +660,7 @@
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -677,7 +677,7 @@
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -694,7 +694,7 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -711,7 +711,7 @@
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -725,10 +725,10 @@
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -742,10 +742,10 @@
         <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -762,7 +762,7 @@
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -776,10 +776,10 @@
         <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -790,13 +790,13 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -807,13 +807,13 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -824,13 +824,13 @@
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -841,13 +841,13 @@
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -858,13 +858,13 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -875,13 +875,13 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20" t="s">
         <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -892,13 +892,13 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="E21" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -906,16 +906,16 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -926,13 +926,13 @@
         <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D23" t="s">
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -943,13 +943,13 @@
         <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D24" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -960,13 +960,13 @@
         <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D25" t="s">
         <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -977,13 +977,13 @@
         <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -994,13 +994,13 @@
         <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D27" t="s">
         <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -1011,30 +1011,13 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/dictionary.xlsx
+++ b/data-raw/dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sloos\Documents\git-repositories\cbssuitabilityhaiti\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E813FFD4-36A4-4D98-9EFF-4CCBD92B277C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982281DC-7289-42EA-BD4C-4CDCF5F1D6A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1170" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5736" yWindow="0" windowWidth="17304" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -82,9 +82,6 @@
     <t>ranking</t>
   </si>
   <si>
-    <t>sup_bati</t>
-  </si>
-  <si>
     <t>density</t>
   </si>
   <si>
@@ -154,9 +151,6 @@
     <t>Categorical socioeconomic status (low, medium)</t>
   </si>
   <si>
-    <t>area of neihborhood covered by buildings in square meters</t>
-  </si>
-  <si>
     <t>Categorical population density (least dense, somewhat dense, dense, very dense, most dense)</t>
   </si>
   <si>
@@ -200,6 +194,12 @@
   </si>
   <si>
     <t>Geospatial data of the different access points that were added to mWater</t>
+  </si>
+  <si>
+    <t>sup_bati_km2</t>
+  </si>
+  <si>
+    <t>area of neihborhood covered by buildings in square kilometers</t>
   </si>
 </sst>
 </file>
@@ -536,7 +536,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -575,7 +575,7 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -592,7 +592,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -609,7 +609,7 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -626,7 +626,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -643,7 +643,7 @@
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -660,7 +660,7 @@
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -677,7 +677,7 @@
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -694,7 +694,7 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -711,7 +711,7 @@
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -728,7 +728,7 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -745,7 +745,7 @@
         <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -756,13 +756,13 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -773,13 +773,13 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
         <v>21</v>
       </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -790,13 +790,13 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -807,13 +807,13 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -824,13 +824,13 @@
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -841,13 +841,13 @@
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -858,13 +858,13 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -875,13 +875,13 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -892,13 +892,13 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" t="s">
         <v>29</v>
       </c>
-      <c r="D21" t="s">
-        <v>30</v>
-      </c>
       <c r="E21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -906,16 +906,16 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
         <v>31</v>
       </c>
-      <c r="C22" t="s">
-        <v>32</v>
-      </c>
       <c r="D22" t="s">
         <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -923,16 +923,16 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D23" t="s">
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -940,16 +940,16 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s">
         <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -957,16 +957,16 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D25" t="s">
         <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -974,16 +974,16 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D26" t="s">
         <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -991,16 +991,16 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D27" t="s">
         <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -1008,16 +1008,16 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" t="s">
         <v>29</v>
       </c>
-      <c r="D28" t="s">
-        <v>30</v>
-      </c>
       <c r="E28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/dictionary.xlsx
+++ b/data-raw/dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sloos\Documents\git-repositories\cbssuitabilityhaiti\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982281DC-7289-42EA-BD4C-4CDCF5F1D6A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC34B195-FE50-4D89-9E97-5482B14762FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5736" yWindow="0" windowWidth="17304" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="51">
   <si>
     <t>directory</t>
   </si>
@@ -61,27 +61,9 @@
     <t>cte</t>
   </si>
   <si>
-    <t>qlty_water</t>
-  </si>
-  <si>
-    <t>qty_water</t>
-  </si>
-  <si>
-    <t>health_car</t>
-  </si>
-  <si>
-    <t>schooling</t>
-  </si>
-  <si>
-    <t>transport</t>
-  </si>
-  <si>
     <t>economy</t>
   </si>
   <si>
-    <t>ranking</t>
-  </si>
-  <si>
     <t>density</t>
   </si>
   <si>
@@ -97,9 +79,6 @@
     <t>latrine</t>
   </si>
   <si>
-    <t>standing</t>
-  </si>
-  <si>
     <t>density_ra</t>
   </si>
   <si>
@@ -145,9 +124,6 @@
     <t>Name of commune (administrative unit in Haiti)</t>
   </si>
   <si>
-    <t>Unknown</t>
-  </si>
-  <si>
     <t>Categorical socioeconomic status (low, medium)</t>
   </si>
   <si>
@@ -161,9 +137,6 @@
   </si>
   <si>
     <t>Suggested pit latrine and septic allowance (allowed, not allowed)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unknown </t>
   </si>
   <si>
     <t>Catgoriccal population density according to the description of the variable "density" (values from 1 to 5)</t>
@@ -533,11 +506,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -575,7 +546,7 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -592,7 +563,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -609,7 +580,7 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -626,7 +597,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -640,10 +611,10 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -654,13 +625,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -671,13 +642,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -691,10 +662,10 @@
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -708,10 +679,10 @@
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -728,7 +699,7 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -745,7 +716,7 @@
         <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -756,13 +727,13 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -773,13 +744,13 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -787,16 +758,16 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -804,16 +775,16 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -821,16 +792,16 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -838,16 +809,16 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
         <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -855,16 +826,16 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -872,16 +843,16 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -889,135 +860,16 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D21" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
